--- a/data/HR1_2/Location1/Location1_2020.xlsx
+++ b/data/HR1_2/Location1/Location1_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1_2\Location1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBD6C32-BA84-4F0A-B485-7865E03C65C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D65B10-DDFE-47AA-BDA0-C01598B12211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -106,10 +106,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1576,7 +1572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214C6533-AEA8-4115-A5A3-1411CFC55E2F}">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -2746,8 +2742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF286627-C6AA-4C9E-84BA-41DB1241B870}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Y25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
